--- a/outputs-HGR-r202/test-f__Veillonellaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Veillonellaceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>Row</t>
   </si>
@@ -28,6 +28,9 @@
     <t>even_MAG-GUT1050.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT10593.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT11020.fa</t>
   </si>
   <si>
@@ -238,6 +241,9 @@
     <t>even_MAG-GUT48943.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT48949.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT48957.fa</t>
   </si>
   <si>
@@ -448,6 +454,9 @@
     <t>even_MAG-GUT7247.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT7546.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT87821.fa</t>
   </si>
   <si>
@@ -563,6 +572,18 @@
   </si>
   <si>
     <t>even_MAG-GUT92091.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9303.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9316.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9364.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9376.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT956.fa</t>
@@ -625,12 +646,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:E191"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.5703125" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="17.85546875" customWidth="true"/>
     <col min="5" max="5" width="10.28515625" customWidth="true"/>
   </cols>
@@ -640,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2">
@@ -708,16 +729,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.0018372878431331277</v>
+        <v>0.00038485364840177498</v>
       </c>
       <c r="C5">
-        <v>0.99015178968585549</v>
+        <v>0.00011639641894647444</v>
       </c>
       <c r="D5">
-        <v>0.0080109224710114193</v>
+        <v>0.99949874993265175</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -725,13 +746,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.00053392761346207336</v>
+        <v>0.0018372878431331277</v>
       </c>
       <c r="C6">
-        <v>0.98874591239155374</v>
+        <v>0.99015178968585549</v>
       </c>
       <c r="D6">
-        <v>0.010720159994984201</v>
+        <v>0.0080109224710114193</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -742,13 +763,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.00065377954642187818</v>
+        <v>0.00053392761346207336</v>
       </c>
       <c r="C7">
-        <v>0.99544485114873371</v>
+        <v>0.98874591239155374</v>
       </c>
       <c r="D7">
-        <v>0.0039013693048444722</v>
+        <v>0.010720159994984201</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -776,13 +797,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.8361200771278037e-05</v>
+        <v>0.00065377954642187818</v>
       </c>
       <c r="C9">
-        <v>0.99971220889729684</v>
+        <v>0.99544485114873371</v>
       </c>
       <c r="D9">
-        <v>0.00026942990193185392</v>
+        <v>0.0039013693048444722</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -793,13 +814,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.00065377954642187818</v>
+        <v>1.8361200771278037e-05</v>
       </c>
       <c r="C10">
-        <v>0.99544485114873371</v>
+        <v>0.99971220889729684</v>
       </c>
       <c r="D10">
-        <v>0.0039013693048444722</v>
+        <v>0.00026942990193185392</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -810,13 +831,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.7413600419858562e-05</v>
+        <v>0.00065377954642187818</v>
       </c>
       <c r="C11">
-        <v>0.99777383332418601</v>
+        <v>0.99544485114873371</v>
       </c>
       <c r="D11">
-        <v>0.0021887530753942584</v>
+        <v>0.0039013693048444722</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -827,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.002532890138708751</v>
+        <v>3.7413600419858562e-05</v>
       </c>
       <c r="C12">
-        <v>0.99740133356282756</v>
+        <v>0.99777383332418601</v>
       </c>
       <c r="D12">
-        <v>6.5776298463600434e-05</v>
+        <v>0.0021887530753942584</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -844,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.0003739695115229917</v>
+        <v>0.002532890138708751</v>
       </c>
       <c r="C13">
-        <v>0.99613789475563075</v>
+        <v>0.99740133356282756</v>
       </c>
       <c r="D13">
-        <v>0.0034881357328463126</v>
+        <v>6.5776298463600434e-05</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -861,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.0016060941534837851</v>
+        <v>0.0003739695115229917</v>
       </c>
       <c r="C14">
-        <v>0.99804411914915148</v>
+        <v>0.99613789475563075</v>
       </c>
       <c r="D14">
-        <v>0.00034978669736468351</v>
+        <v>0.0034881357328463126</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -878,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.0074102883725042333</v>
+        <v>0.0016060941534837851</v>
       </c>
       <c r="C15">
-        <v>0.9911376861877782</v>
+        <v>0.99804411914915148</v>
       </c>
       <c r="D15">
-        <v>0.0014520254397175649</v>
+        <v>0.00034978669736468351</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -895,13 +916,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4.5881079858079781e-05</v>
+        <v>0.0074102883725042333</v>
       </c>
       <c r="C16">
-        <v>0.99552711230036828</v>
+        <v>0.9911376861877782</v>
       </c>
       <c r="D16">
-        <v>0.0044270066197736168</v>
+        <v>0.0014520254397175649</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -912,13 +933,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.00015181990560383241</v>
+        <v>4.5881079858079781e-05</v>
       </c>
       <c r="C17">
-        <v>0.99912397308647616</v>
+        <v>0.99552711230036828</v>
       </c>
       <c r="D17">
-        <v>0.00072420700791993591</v>
+        <v>0.0044270066197736168</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -929,13 +950,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.00067845775938381704</v>
+        <v>0.00015181990560383241</v>
       </c>
       <c r="C18">
-        <v>0.995570698815052</v>
+        <v>0.99912397308647616</v>
       </c>
       <c r="D18">
-        <v>0.0037508434255641454</v>
+        <v>0.00072420700791993591</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -946,13 +967,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.028882011944195263</v>
+        <v>0.00067845775938381704</v>
       </c>
       <c r="C19">
-        <v>0.97103263857202504</v>
+        <v>0.995570698815052</v>
       </c>
       <c r="D19">
-        <v>8.5349483779715804e-05</v>
+        <v>0.0037508434255641454</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -963,13 +984,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.013707986812349506</v>
+        <v>0.028882011944195263</v>
       </c>
       <c r="C20">
-        <v>0.97587348741281676</v>
+        <v>0.97103263857202504</v>
       </c>
       <c r="D20">
-        <v>0.010418525774833676</v>
+        <v>8.5349483779715804e-05</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -980,13 +1001,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.0044262890905187339</v>
+        <v>0.013707986812349506</v>
       </c>
       <c r="C21">
-        <v>0.9926525913608536</v>
+        <v>0.97587348741281676</v>
       </c>
       <c r="D21">
-        <v>0.0029211195486276336</v>
+        <v>0.010418525774833676</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -997,13 +1018,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.0014969332965026466</v>
+        <v>0.0044262890905187339</v>
       </c>
       <c r="C22">
-        <v>0.99830777006906868</v>
+        <v>0.9926525913608536</v>
       </c>
       <c r="D22">
-        <v>0.00019529663442868946</v>
+        <v>0.0029211195486276336</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1014,13 +1035,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.010195308874373005</v>
+        <v>0.0014969332965026466</v>
       </c>
       <c r="C23">
-        <v>0.98962904993444656</v>
+        <v>0.99830777006906868</v>
       </c>
       <c r="D23">
-        <v>0.0001756411911805259</v>
+        <v>0.00019529663442868946</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1031,13 +1052,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.00025140225750963131</v>
+        <v>0.010195308874373005</v>
       </c>
       <c r="C24">
-        <v>0.99735075238604676</v>
+        <v>0.98962904993444656</v>
       </c>
       <c r="D24">
-        <v>0.0023978453564436251</v>
+        <v>0.0001756411911805259</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1048,13 +1069,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.011691640015269327</v>
+        <v>0.00025140225750963131</v>
       </c>
       <c r="C25">
-        <v>0.98801233857074655</v>
+        <v>0.99735075238604676</v>
       </c>
       <c r="D25">
-        <v>0.00029602141398413044</v>
+        <v>0.0023978453564436251</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1065,13 +1086,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.00032166585878451616</v>
+        <v>0.011691640015269327</v>
       </c>
       <c r="C26">
-        <v>0.99257976517873581</v>
+        <v>0.98801233857074655</v>
       </c>
       <c r="D26">
-        <v>0.0070985689624796572</v>
+        <v>0.00029602141398413044</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1082,13 +1103,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.0056616549449475242</v>
+        <v>0.00032166585878451616</v>
       </c>
       <c r="C27">
-        <v>0.99425975717517256</v>
+        <v>0.99257976517873581</v>
       </c>
       <c r="D27">
-        <v>7.8587879879938005e-05</v>
+        <v>0.0070985689624796572</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -1099,13 +1120,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2.531192138353859e-05</v>
+        <v>0.0056616549449475242</v>
       </c>
       <c r="C28">
-        <v>0.993347326433765</v>
+        <v>0.99425975717517256</v>
       </c>
       <c r="D28">
-        <v>0.0066273616448513858</v>
+        <v>7.8587879879938005e-05</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -1116,13 +1137,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.021378685498712229</v>
+        <v>2.531192138353859e-05</v>
       </c>
       <c r="C29">
-        <v>0.97830816206567439</v>
+        <v>0.993347326433765</v>
       </c>
       <c r="D29">
-        <v>0.00031315243561333715</v>
+        <v>0.0066273616448513858</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1133,13 +1154,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.014044109317975513</v>
+        <v>0.021378685498712229</v>
       </c>
       <c r="C30">
-        <v>0.98576427475985517</v>
+        <v>0.97830816206567439</v>
       </c>
       <c r="D30">
-        <v>0.00019161592216930236</v>
+        <v>0.00031315243561333715</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1150,13 +1171,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.019389559037531538</v>
+        <v>0.014044109317975513</v>
       </c>
       <c r="C31">
-        <v>0.94792261900259078</v>
+        <v>0.98576427475985517</v>
       </c>
       <c r="D31">
-        <v>0.032687821959877836</v>
+        <v>0.00019161592216930236</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -1167,13 +1188,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.0016948231698139841</v>
+        <v>0.019389559037531538</v>
       </c>
       <c r="C32">
-        <v>0.98304526506396661</v>
+        <v>0.94792261900259078</v>
       </c>
       <c r="D32">
-        <v>0.0152599117662194</v>
+        <v>0.032687821959877836</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1184,13 +1205,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.043509361121272849</v>
+        <v>0.0016948231698139841</v>
       </c>
       <c r="C33">
-        <v>0.883455627789971</v>
+        <v>0.98304526506396661</v>
       </c>
       <c r="D33">
-        <v>0.073035011088756069</v>
+        <v>0.0152599117662194</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -1201,13 +1222,13 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.0047592273423393734</v>
+        <v>0.043509361121272849</v>
       </c>
       <c r="C34">
-        <v>0.99477608744560631</v>
+        <v>0.883455627789971</v>
       </c>
       <c r="D34">
-        <v>0.00046468521205435585</v>
+        <v>0.073035011088756069</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -1218,13 +1239,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.0025475884085177547</v>
+        <v>0.0047592273423393734</v>
       </c>
       <c r="C35">
-        <v>0.99635219359179272</v>
+        <v>0.99477608744560631</v>
       </c>
       <c r="D35">
-        <v>0.001100217999689413</v>
+        <v>0.00046468521205435585</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -1235,13 +1256,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.00046609198531645762</v>
+        <v>0.0025475884085177547</v>
       </c>
       <c r="C36">
-        <v>0.99926023177654</v>
+        <v>0.99635219359179272</v>
       </c>
       <c r="D36">
-        <v>0.00027367623814350799</v>
+        <v>0.001100217999689413</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1252,13 +1273,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.00051449543227387318</v>
+        <v>0.00046609198531645762</v>
       </c>
       <c r="C37">
-        <v>0.99902053496514687</v>
+        <v>0.99926023177654</v>
       </c>
       <c r="D37">
-        <v>0.00046496960257929405</v>
+        <v>0.00027367623814350799</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -1269,13 +1290,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.00041455031626187326</v>
+        <v>0.00051449543227387318</v>
       </c>
       <c r="C38">
-        <v>0.9982710787993867</v>
+        <v>0.99902053496514687</v>
       </c>
       <c r="D38">
-        <v>0.0013143708843514192</v>
+        <v>0.00046496960257929405</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -1286,13 +1307,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.0003404304941229579</v>
+        <v>0.00041455031626187326</v>
       </c>
       <c r="C39">
-        <v>0.96702245618717686</v>
+        <v>0.9982710787993867</v>
       </c>
       <c r="D39">
-        <v>0.032637113318700221</v>
+        <v>0.0013143708843514192</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1303,13 +1324,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.00036078527136674198</v>
+        <v>0.0003404304941229579</v>
       </c>
       <c r="C40">
-        <v>0.99357035499135882</v>
+        <v>0.96702245618717686</v>
       </c>
       <c r="D40">
-        <v>0.0060688597372743867</v>
+        <v>0.032637113318700221</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -1320,13 +1341,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.051672901915201741</v>
+        <v>0.00036078527136674198</v>
       </c>
       <c r="C41">
-        <v>0.91694480212019913</v>
+        <v>0.99357035499135882</v>
       </c>
       <c r="D41">
-        <v>0.031382295964599162</v>
+        <v>0.0060688597372743867</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -1337,13 +1358,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.0019328674901416779</v>
+        <v>0.051672901915201741</v>
       </c>
       <c r="C42">
-        <v>0.95437572353339217</v>
+        <v>0.91694480212019913</v>
       </c>
       <c r="D42">
-        <v>0.043691408976466249</v>
+        <v>0.031382295964599162</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -1354,13 +1375,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.0079828889116238221</v>
+        <v>0.0019328674901416779</v>
       </c>
       <c r="C43">
-        <v>0.99162232085972624</v>
+        <v>0.95437572353339217</v>
       </c>
       <c r="D43">
-        <v>0.00039479022864987177</v>
+        <v>0.043691408976466249</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1371,13 +1392,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.0011762498235959235</v>
+        <v>0.0079828889116238221</v>
       </c>
       <c r="C44">
-        <v>0.94039818168415057</v>
+        <v>0.99162232085972624</v>
       </c>
       <c r="D44">
-        <v>0.058425568492253471</v>
+        <v>0.00039479022864987177</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1388,13 +1409,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.014515496430565598</v>
+        <v>0.0011762498235959235</v>
       </c>
       <c r="C45">
-        <v>0.98116294193789155</v>
+        <v>0.94039818168415057</v>
       </c>
       <c r="D45">
-        <v>0.0043215616315427884</v>
+        <v>0.058425568492253471</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -1405,13 +1426,13 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.00027657493962833008</v>
+        <v>0.014515496430565598</v>
       </c>
       <c r="C46">
-        <v>0.99966730199547105</v>
+        <v>0.98116294193789155</v>
       </c>
       <c r="D46">
-        <v>5.6123064900729828e-05</v>
+        <v>0.0043215616315427884</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -1422,13 +1443,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.026948620877217149</v>
+        <v>0.00027657493962833008</v>
       </c>
       <c r="C47">
-        <v>0.97287382936837374</v>
+        <v>0.99966730199547105</v>
       </c>
       <c r="D47">
-        <v>0.00017754975440902827</v>
+        <v>5.6123064900729828e-05</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -1439,13 +1460,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.00031191686624517983</v>
+        <v>0.026948620877217149</v>
       </c>
       <c r="C48">
-        <v>0.99941059836058532</v>
+        <v>0.97287382936837374</v>
       </c>
       <c r="D48">
-        <v>0.00027748477316942317</v>
+        <v>0.00017754975440902827</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -1456,13 +1477,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.00069539588422675921</v>
+        <v>0.00031191686624517983</v>
       </c>
       <c r="C49">
-        <v>0.99830777847786101</v>
+        <v>0.99941059836058532</v>
       </c>
       <c r="D49">
-        <v>0.00099682563791226122</v>
+        <v>0.00027748477316942317</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -1473,13 +1494,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.0020829349901710431</v>
+        <v>0.00069539588422675921</v>
       </c>
       <c r="C50">
-        <v>0.99123565333226693</v>
+        <v>0.99830777847786101</v>
       </c>
       <c r="D50">
-        <v>0.0066814116775621036</v>
+        <v>0.00099682563791226122</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1490,13 +1511,13 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.00032247863046731037</v>
+        <v>0.0020829349901710431</v>
       </c>
       <c r="C51">
-        <v>0.99315950237013584</v>
+        <v>0.99123565333226693</v>
       </c>
       <c r="D51">
-        <v>0.0065180189993967741</v>
+        <v>0.0066814116775621036</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -1507,13 +1528,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.00015509796562143807</v>
+        <v>0.00032247863046731037</v>
       </c>
       <c r="C52">
-        <v>0.98226850661127652</v>
+        <v>0.99315950237013584</v>
       </c>
       <c r="D52">
-        <v>0.017576395423102048</v>
+        <v>0.0065180189993967741</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -1524,13 +1545,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.0019134084543161699</v>
+        <v>0.00015509796562143807</v>
       </c>
       <c r="C53">
-        <v>0.99693550502490702</v>
+        <v>0.98226850661127652</v>
       </c>
       <c r="D53">
-        <v>0.001151086520776768</v>
+        <v>0.017576395423102048</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -1541,13 +1562,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.13683139177816322</v>
+        <v>0.0019134084543161699</v>
       </c>
       <c r="C54">
-        <v>0.85511139655431323</v>
+        <v>0.99693550502490702</v>
       </c>
       <c r="D54">
-        <v>0.0080572116675235329</v>
+        <v>0.001151086520776768</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -1558,13 +1579,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.00022414948222432792</v>
+        <v>0.13683139177816322</v>
       </c>
       <c r="C55">
-        <v>0.99855328623038875</v>
+        <v>0.85511139655431323</v>
       </c>
       <c r="D55">
-        <v>0.001222564287386974</v>
+        <v>0.0080572116675235329</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -1575,13 +1596,13 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.057792245239775074</v>
+        <v>0.00022414948222432792</v>
       </c>
       <c r="C56">
-        <v>0.89354939348851981</v>
+        <v>0.99855328623038875</v>
       </c>
       <c r="D56">
-        <v>0.048658361271705176</v>
+        <v>0.001222564287386974</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -1592,13 +1613,13 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.0095592360904727079</v>
+        <v>0.057792245239775074</v>
       </c>
       <c r="C57">
-        <v>0.9847144938802167</v>
+        <v>0.89354939348851981</v>
       </c>
       <c r="D57">
-        <v>0.0057262700293106324</v>
+        <v>0.048658361271705176</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -1609,13 +1630,13 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.0019726948263835216</v>
+        <v>0.0095592360904727079</v>
       </c>
       <c r="C58">
-        <v>0.99787195623381664</v>
+        <v>0.9847144938802167</v>
       </c>
       <c r="D58">
-        <v>0.00015534893979982106</v>
+        <v>0.0057262700293106324</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -1626,13 +1647,13 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.00086566329248243998</v>
+        <v>0.0019726948263835216</v>
       </c>
       <c r="C59">
-        <v>0.99672636046560925</v>
+        <v>0.99787195623381664</v>
       </c>
       <c r="D59">
-        <v>0.0024079762419082257</v>
+        <v>0.00015534893979982106</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -1643,13 +1664,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.0013377390241604394</v>
+        <v>0.00086566329248243998</v>
       </c>
       <c r="C60">
-        <v>0.97670120466375854</v>
+        <v>0.99672636046560925</v>
       </c>
       <c r="D60">
-        <v>0.021961056312081086</v>
+        <v>0.0024079762419082257</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -1660,13 +1681,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.001952692092427728</v>
+        <v>0.0013377390241604394</v>
       </c>
       <c r="C61">
-        <v>0.99798167704627949</v>
+        <v>0.97670120466375854</v>
       </c>
       <c r="D61">
-        <v>6.5630861292978202e-05</v>
+        <v>0.021961056312081086</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -1677,13 +1698,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.00011473526174384648</v>
+        <v>0.001952692092427728</v>
       </c>
       <c r="C62">
-        <v>0.9956855846669288</v>
+        <v>0.99798167704627949</v>
       </c>
       <c r="D62">
-        <v>0.0041996800713272114</v>
+        <v>6.5630861292978202e-05</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -1694,13 +1715,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.00024305954298717023</v>
+        <v>0.00011473526174384648</v>
       </c>
       <c r="C63">
-        <v>0.99650750365922036</v>
+        <v>0.9956855846669288</v>
       </c>
       <c r="D63">
-        <v>0.0032494367977924173</v>
+        <v>0.0041996800713272114</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -1711,13 +1732,13 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.00014964515342498239</v>
+        <v>0.00024305954298717023</v>
       </c>
       <c r="C64">
-        <v>0.9990790141814867</v>
+        <v>0.99650750365922036</v>
       </c>
       <c r="D64">
-        <v>0.00077134066508834347</v>
+        <v>0.0032494367977924173</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -1728,13 +1749,13 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.010162309376646441</v>
+        <v>0.00014964515342498239</v>
       </c>
       <c r="C65">
-        <v>0.98751774374872803</v>
+        <v>0.9990790141814867</v>
       </c>
       <c r="D65">
-        <v>0.0023199468746255359</v>
+        <v>0.00077134066508834347</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -1745,13 +1766,13 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.0040532394704397108</v>
+        <v>0.010162309376646441</v>
       </c>
       <c r="C66">
-        <v>0.99459767076706451</v>
+        <v>0.98751774374872803</v>
       </c>
       <c r="D66">
-        <v>0.0013490897624957663</v>
+        <v>0.0023199468746255359</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -1762,13 +1783,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.0019786110867670596</v>
+        <v>0.0040532394704397108</v>
       </c>
       <c r="C67">
-        <v>0.99741722501622854</v>
+        <v>0.99459767076706451</v>
       </c>
       <c r="D67">
-        <v>0.00060416389700435665</v>
+        <v>0.0013490897624957663</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -1779,13 +1800,13 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.009676928750456476</v>
+        <v>0.0019786110867670596</v>
       </c>
       <c r="C68">
-        <v>0.92412729634333368</v>
+        <v>0.99741722501622854</v>
       </c>
       <c r="D68">
-        <v>0.066195774906209787</v>
+        <v>0.00060416389700435665</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -1796,13 +1817,13 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.0020966596133001349</v>
+        <v>0.009676928750456476</v>
       </c>
       <c r="C69">
-        <v>0.99648882198899325</v>
+        <v>0.92412729634333368</v>
       </c>
       <c r="D69">
-        <v>0.0014145183977066448</v>
+        <v>0.066195774906209787</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -1813,13 +1834,13 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.049122572518524359</v>
+        <v>0.0020966596133001349</v>
       </c>
       <c r="C70">
-        <v>0.95080908899106797</v>
+        <v>0.99648882198899325</v>
       </c>
       <c r="D70">
-        <v>6.8338490407708049e-05</v>
+        <v>0.0014145183977066448</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -1830,13 +1851,13 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>3.8073250077826278e-05</v>
+        <v>0.049122572518524359</v>
       </c>
       <c r="C71">
-        <v>0.99953356938661064</v>
+        <v>0.95080908899106797</v>
       </c>
       <c r="D71">
-        <v>0.00042835736331152012</v>
+        <v>6.8338490407708049e-05</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -1847,13 +1868,13 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.0096110659233917105</v>
+        <v>3.8073250077826278e-05</v>
       </c>
       <c r="C72">
-        <v>0.99022910673889519</v>
+        <v>0.99953356938661064</v>
       </c>
       <c r="D72">
-        <v>0.00015982733771309447</v>
+        <v>0.00042835736331152012</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -1864,13 +1885,13 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.0020006041124335035</v>
+        <v>0.0096110659233917105</v>
       </c>
       <c r="C73">
-        <v>0.99140185619338739</v>
+        <v>0.99022910673889519</v>
       </c>
       <c r="D73">
-        <v>0.0065975396941790965</v>
+        <v>0.00015982733771309447</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -1881,13 +1902,13 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.0031440201616538344</v>
+        <v>0.0020006041124335035</v>
       </c>
       <c r="C74">
-        <v>0.99377363642715999</v>
+        <v>0.99140185619338739</v>
       </c>
       <c r="D74">
-        <v>0.0030823434111861806</v>
+        <v>0.0065975396941790965</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -1898,13 +1919,13 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.012711968645614847</v>
+        <v>0.0031440201616538344</v>
       </c>
       <c r="C75">
-        <v>0.96624013575164136</v>
+        <v>0.99377363642715999</v>
       </c>
       <c r="D75">
-        <v>0.021047895602743803</v>
+        <v>0.0030823434111861806</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -1915,13 +1936,13 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.013415349995572883</v>
+        <v>2.8883065190010065e-05</v>
       </c>
       <c r="C76">
-        <v>0.98558938701259213</v>
+        <v>0.98297125914076211</v>
       </c>
       <c r="D76">
-        <v>0.00099526299183509454</v>
+        <v>0.016999857794047793</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -1932,13 +1953,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.00037443785803219952</v>
+        <v>0.012711968645614847</v>
       </c>
       <c r="C77">
-        <v>0.99503250021934597</v>
+        <v>0.96624013575164136</v>
       </c>
       <c r="D77">
-        <v>0.0045930619226218078</v>
+        <v>0.021047895602743803</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -1949,13 +1970,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.0059184931162431049</v>
+        <v>0.013415349995572883</v>
       </c>
       <c r="C78">
-        <v>0.99394980171260006</v>
+        <v>0.98558938701259213</v>
       </c>
       <c r="D78">
-        <v>0.00013170517115685968</v>
+        <v>0.00099526299183509454</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -1966,13 +1987,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.07752229438848289</v>
+        <v>0.00037443785803219952</v>
       </c>
       <c r="C79">
-        <v>0.85628217757764913</v>
+        <v>0.99503250021934597</v>
       </c>
       <c r="D79">
-        <v>0.066195528033868162</v>
+        <v>0.0045930619226218078</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -1983,13 +2004,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.02527069007441202</v>
+        <v>0.0059184931162431049</v>
       </c>
       <c r="C80">
-        <v>0.95615602192865823</v>
+        <v>0.99394980171260006</v>
       </c>
       <c r="D80">
-        <v>0.018573287996929772</v>
+        <v>0.00013170517115685968</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -2000,13 +2021,13 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.0055376803930117799</v>
+        <v>0.07752229438848289</v>
       </c>
       <c r="C81">
-        <v>0.98298252019168353</v>
+        <v>0.85628217757764913</v>
       </c>
       <c r="D81">
-        <v>0.011479799415304581</v>
+        <v>0.066195528033868162</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -2017,13 +2038,13 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.0011656918167374489</v>
+        <v>0.02527069007441202</v>
       </c>
       <c r="C82">
-        <v>0.98196652897076886</v>
+        <v>0.95615602192865823</v>
       </c>
       <c r="D82">
-        <v>0.016867779212493654</v>
+        <v>0.018573287996929772</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -2034,13 +2055,13 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.0071684796142198253</v>
+        <v>0.0055376803930117799</v>
       </c>
       <c r="C83">
-        <v>0.99041974132856259</v>
+        <v>0.98298252019168353</v>
       </c>
       <c r="D83">
-        <v>0.0024117790572175941</v>
+        <v>0.011479799415304581</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2051,13 +2072,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.0002386103893653289</v>
+        <v>0.0011656918167374489</v>
       </c>
       <c r="C84">
-        <v>0.94365441691461815</v>
+        <v>0.98196652897076886</v>
       </c>
       <c r="D84">
-        <v>0.056106972696016569</v>
+        <v>0.016867779212493654</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -2068,13 +2089,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.0097655119586981809</v>
+        <v>0.0071684796142198253</v>
       </c>
       <c r="C85">
-        <v>0.98612994156291056</v>
+        <v>0.99041974132856259</v>
       </c>
       <c r="D85">
-        <v>0.0041045464783911892</v>
+        <v>0.0024117790572175941</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -2085,13 +2106,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.027132466872265715</v>
+        <v>0.0002386103893653289</v>
       </c>
       <c r="C86">
-        <v>0.96334454444064421</v>
+        <v>0.94365441691461815</v>
       </c>
       <c r="D86">
-        <v>0.0095229886870901396</v>
+        <v>0.056106972696016569</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -2102,13 +2123,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.018025376451585286</v>
+        <v>0.0097655119586981809</v>
       </c>
       <c r="C87">
-        <v>0.98170358237451028</v>
+        <v>0.98612994156291056</v>
       </c>
       <c r="D87">
-        <v>0.00027104117390444333</v>
+        <v>0.0041045464783911892</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -2119,13 +2140,13 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.0088648309818374037</v>
+        <v>0.027132466872265715</v>
       </c>
       <c r="C88">
-        <v>0.9705887494500649</v>
+        <v>0.96334454444064421</v>
       </c>
       <c r="D88">
-        <v>0.020546419568097572</v>
+        <v>0.0095229886870901396</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -2136,13 +2157,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.0045681001967674308</v>
+        <v>0.018025376451585286</v>
       </c>
       <c r="C89">
-        <v>0.99433571949092658</v>
+        <v>0.98170358237451028</v>
       </c>
       <c r="D89">
-        <v>0.0010961803123059209</v>
+        <v>0.00027104117390444333</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -2153,13 +2174,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.0069206124352616041</v>
+        <v>0.0088648309818374037</v>
       </c>
       <c r="C90">
-        <v>0.98939248005927782</v>
+        <v>0.9705887494500649</v>
       </c>
       <c r="D90">
-        <v>0.0036869075054606422</v>
+        <v>0.020546419568097572</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -2170,13 +2191,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.02832196286469511</v>
+        <v>0.0045681001967674308</v>
       </c>
       <c r="C91">
-        <v>0.96265719579197517</v>
+        <v>0.99433571949092658</v>
       </c>
       <c r="D91">
-        <v>0.0090208413433297569</v>
+        <v>0.0010961803123059209</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -2187,13 +2208,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.0022287929074584802</v>
+        <v>0.0069206124352616041</v>
       </c>
       <c r="C92">
-        <v>0.99681971832969429</v>
+        <v>0.98939248005927782</v>
       </c>
       <c r="D92">
-        <v>0.00095148876284728058</v>
+        <v>0.0036869075054606422</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -2204,13 +2225,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.016817183571285893</v>
+        <v>0.02832196286469511</v>
       </c>
       <c r="C93">
-        <v>0.97588403178299332</v>
+        <v>0.96265719579197517</v>
       </c>
       <c r="D93">
-        <v>0.0072987846457207252</v>
+        <v>0.0090208413433297569</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -2221,13 +2242,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.005485138796412106</v>
+        <v>0.0022287929074584802</v>
       </c>
       <c r="C94">
-        <v>0.99302676894499964</v>
+        <v>0.99681971832969429</v>
       </c>
       <c r="D94">
-        <v>0.0014880922585882384</v>
+        <v>0.00095148876284728058</v>
       </c>
       <c r="E94">
         <v>2</v>
@@ -2238,13 +2259,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.0052977050072144415</v>
+        <v>0.016817183571285893</v>
       </c>
       <c r="C95">
-        <v>0.99015643748361015</v>
+        <v>0.97588403178299332</v>
       </c>
       <c r="D95">
-        <v>0.0045458575091753637</v>
+        <v>0.0072987846457207252</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -2255,13 +2276,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.0011590281911828531</v>
+        <v>0.005485138796412106</v>
       </c>
       <c r="C96">
-        <v>0.99790356951168979</v>
+        <v>0.99302676894499964</v>
       </c>
       <c r="D96">
-        <v>0.00093740229712737267</v>
+        <v>0.0014880922585882384</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -2272,13 +2293,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.00062433059995659296</v>
+        <v>0.0052977050072144415</v>
       </c>
       <c r="C97">
-        <v>0.99924661513540913</v>
+        <v>0.99015643748361015</v>
       </c>
       <c r="D97">
-        <v>0.00012905426463422803</v>
+        <v>0.0045458575091753637</v>
       </c>
       <c r="E97">
         <v>2</v>
@@ -2289,13 +2310,13 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.00031377780973084591</v>
+        <v>0.0011590281911828531</v>
       </c>
       <c r="C98">
-        <v>0.99654527726177367</v>
+        <v>0.99790356951168979</v>
       </c>
       <c r="D98">
-        <v>0.0031409449284955419</v>
+        <v>0.00093740229712737267</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -2306,13 +2327,13 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.00056128596419572035</v>
+        <v>0.00062433059995659296</v>
       </c>
       <c r="C99">
-        <v>0.99882894202873762</v>
+        <v>0.99924661513540913</v>
       </c>
       <c r="D99">
-        <v>0.00060977200706669203</v>
+        <v>0.00012905426463422803</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2323,13 +2344,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.004522233257043355</v>
+        <v>0.00031377780973084591</v>
       </c>
       <c r="C100">
-        <v>0.99545926846881627</v>
+        <v>0.99654527726177367</v>
       </c>
       <c r="D100">
-        <v>1.8498274140231167e-05</v>
+        <v>0.0031409449284955419</v>
       </c>
       <c r="E100">
         <v>2</v>
@@ -2340,13 +2361,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.0001462253335150457</v>
+        <v>0.00056128596419572035</v>
       </c>
       <c r="C101">
-        <v>0.99860487703300427</v>
+        <v>0.99882894202873762</v>
       </c>
       <c r="D101">
-        <v>0.001248897633480547</v>
+        <v>0.00060977200706669203</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -2357,13 +2378,13 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.02090767571431015</v>
+        <v>0.004522233257043355</v>
       </c>
       <c r="C102">
-        <v>0.95952254408354698</v>
+        <v>0.99545926846881627</v>
       </c>
       <c r="D102">
-        <v>0.019569780202142756</v>
+        <v>1.8498274140231167e-05</v>
       </c>
       <c r="E102">
         <v>2</v>
@@ -2374,13 +2395,13 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.0045443373628066127</v>
+        <v>0.0001462253335150457</v>
       </c>
       <c r="C103">
-        <v>0.99373595574464502</v>
+        <v>0.99860487703300427</v>
       </c>
       <c r="D103">
-        <v>0.0017197068925483806</v>
+        <v>0.001248897633480547</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -2391,13 +2412,13 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.0091996346731056614</v>
+        <v>0.02090767571431015</v>
       </c>
       <c r="C104">
-        <v>0.98664567818742144</v>
+        <v>0.95952254408354698</v>
       </c>
       <c r="D104">
-        <v>0.0041546871394729252</v>
+        <v>0.019569780202142756</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -2408,13 +2429,13 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.0049074375060114009</v>
+        <v>0.0045443373628066127</v>
       </c>
       <c r="C105">
-        <v>0.99298258496015701</v>
+        <v>0.99373595574464502</v>
       </c>
       <c r="D105">
-        <v>0.0021099775338316602</v>
+        <v>0.0017197068925483806</v>
       </c>
       <c r="E105">
         <v>2</v>
@@ -2425,13 +2446,13 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.001280408117825106</v>
+        <v>0.0091996346731056614</v>
       </c>
       <c r="C106">
-        <v>0.99356551804286952</v>
+        <v>0.98664567818742144</v>
       </c>
       <c r="D106">
-        <v>0.0051540738393053877</v>
+        <v>0.0041546871394729252</v>
       </c>
       <c r="E106">
         <v>2</v>
@@ -2442,13 +2463,13 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.0017925969060016398</v>
+        <v>0.0049074375060114009</v>
       </c>
       <c r="C107">
-        <v>0.97573699950408299</v>
+        <v>0.99298258496015701</v>
       </c>
       <c r="D107">
-        <v>0.022470403589915474</v>
+        <v>0.0021099775338316602</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -2459,13 +2480,13 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.003267366753193677</v>
+        <v>0.001280408117825106</v>
       </c>
       <c r="C108">
-        <v>0.99077419502782715</v>
+        <v>0.99356551804286952</v>
       </c>
       <c r="D108">
-        <v>0.005958438218979103</v>
+        <v>0.0051540738393053877</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -2476,13 +2497,13 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.003267366753193677</v>
+        <v>0.0017925969060016398</v>
       </c>
       <c r="C109">
-        <v>0.99077419502782715</v>
+        <v>0.97573699950408299</v>
       </c>
       <c r="D109">
-        <v>0.005958438218979103</v>
+        <v>0.022470403589915474</v>
       </c>
       <c r="E109">
         <v>2</v>
@@ -2493,13 +2514,13 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.0011262011733556771</v>
+        <v>0.003267366753193677</v>
       </c>
       <c r="C110">
-        <v>0.98999054380663642</v>
+        <v>0.99077419502782715</v>
       </c>
       <c r="D110">
-        <v>0.0088832550200078839</v>
+        <v>0.005958438218979103</v>
       </c>
       <c r="E110">
         <v>2</v>
@@ -2510,13 +2531,13 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.0012713495433868192</v>
+        <v>0.003267366753193677</v>
       </c>
       <c r="C111">
-        <v>0.99693047841993665</v>
+        <v>0.99077419502782715</v>
       </c>
       <c r="D111">
-        <v>0.0017981720366764583</v>
+        <v>0.005958438218979103</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -2527,13 +2548,13 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.024183228827442275</v>
+        <v>0.0011262011733556771</v>
       </c>
       <c r="C112">
-        <v>0.95811981733789908</v>
+        <v>0.98999054380663642</v>
       </c>
       <c r="D112">
-        <v>0.01769695383465876</v>
+        <v>0.0088832550200078839</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -2544,13 +2565,13 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.0010898098369577836</v>
+        <v>0.0012713495433868192</v>
       </c>
       <c r="C113">
-        <v>0.9895413651300039</v>
+        <v>0.99693047841993665</v>
       </c>
       <c r="D113">
-        <v>0.0093688250330383679</v>
+        <v>0.0017981720366764583</v>
       </c>
       <c r="E113">
         <v>2</v>
@@ -2561,13 +2582,13 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.012458807906301628</v>
+        <v>0.024183228827442275</v>
       </c>
       <c r="C114">
-        <v>0.97283064637366068</v>
+        <v>0.95811981733789908</v>
       </c>
       <c r="D114">
-        <v>0.014710545720037863</v>
+        <v>0.01769695383465876</v>
       </c>
       <c r="E114">
         <v>2</v>
@@ -2578,13 +2599,13 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.00032547883443378404</v>
+        <v>0.0010898098369577836</v>
       </c>
       <c r="C115">
-        <v>0.99915453630991824</v>
+        <v>0.9895413651300039</v>
       </c>
       <c r="D115">
-        <v>0.00051998485564792862</v>
+        <v>0.0093688250330383679</v>
       </c>
       <c r="E115">
         <v>2</v>
@@ -2595,13 +2616,13 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.0014754545655397847</v>
+        <v>0.012458807906301628</v>
       </c>
       <c r="C116">
-        <v>0.92195995950933074</v>
+        <v>0.97283064637366068</v>
       </c>
       <c r="D116">
-        <v>0.076564585925129394</v>
+        <v>0.014710545720037863</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -2612,13 +2633,13 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.0022137336816146391</v>
+        <v>0.00032547883443378404</v>
       </c>
       <c r="C117">
-        <v>0.99763885903376381</v>
+        <v>0.99915453630991824</v>
       </c>
       <c r="D117">
-        <v>0.00014740728462146817</v>
+        <v>0.00051998485564792862</v>
       </c>
       <c r="E117">
         <v>2</v>
@@ -2629,13 +2650,13 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.011386387244624561</v>
+        <v>0.0014754545655397847</v>
       </c>
       <c r="C118">
-        <v>0.98795789723859984</v>
+        <v>0.92195995950933074</v>
       </c>
       <c r="D118">
-        <v>0.00065571551677555016</v>
+        <v>0.076564585925129394</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -2646,13 +2667,13 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.0044598985883096912</v>
+        <v>0.0022137336816146391</v>
       </c>
       <c r="C119">
-        <v>0.98925779453825102</v>
+        <v>0.99763885903376381</v>
       </c>
       <c r="D119">
-        <v>0.0062823068734393292</v>
+        <v>0.00014740728462146817</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -2663,13 +2684,13 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.00077911196437394786</v>
+        <v>0.011386387244624561</v>
       </c>
       <c r="C120">
-        <v>0.9881042449111902</v>
+        <v>0.98795789723859984</v>
       </c>
       <c r="D120">
-        <v>0.011116643124435834</v>
+        <v>0.00065571551677555016</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -2680,13 +2701,13 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.0001401725765633291</v>
+        <v>0.0044598985883096912</v>
       </c>
       <c r="C121">
-        <v>0.9995811094478817</v>
+        <v>0.98925779453825102</v>
       </c>
       <c r="D121">
-        <v>0.00027871797555495073</v>
+        <v>0.0062823068734393292</v>
       </c>
       <c r="E121">
         <v>2</v>
@@ -2697,13 +2718,13 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.00022085888860796563</v>
+        <v>0.00077911196437394786</v>
       </c>
       <c r="C122">
-        <v>0.98764878015016055</v>
+        <v>0.9881042449111902</v>
       </c>
       <c r="D122">
-        <v>0.012130360961231462</v>
+        <v>0.011116643124435834</v>
       </c>
       <c r="E122">
         <v>2</v>
@@ -2714,13 +2735,13 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.00047682104419680436</v>
+        <v>0.0001401725765633291</v>
       </c>
       <c r="C123">
-        <v>0.9991425075046938</v>
+        <v>0.9995811094478817</v>
       </c>
       <c r="D123">
-        <v>0.00038067145110939709</v>
+        <v>0.00027871797555495073</v>
       </c>
       <c r="E123">
         <v>2</v>
@@ -2731,13 +2752,13 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.0039829242323695304</v>
+        <v>0.00022085888860796563</v>
       </c>
       <c r="C124">
-        <v>0.99511147265903277</v>
+        <v>0.98764878015016055</v>
       </c>
       <c r="D124">
-        <v>0.00090560310859782978</v>
+        <v>0.012130360961231462</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -2748,13 +2769,13 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.0027596839635800809</v>
+        <v>0.00047682104419680436</v>
       </c>
       <c r="C125">
-        <v>0.99626579744823462</v>
+        <v>0.9991425075046938</v>
       </c>
       <c r="D125">
-        <v>0.00097451858818527236</v>
+        <v>0.00038067145110939709</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -2765,13 +2786,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.0072721237083035418</v>
+        <v>0.0039829242323695304</v>
       </c>
       <c r="C126">
-        <v>0.96977401209452474</v>
+        <v>0.99511147265903277</v>
       </c>
       <c r="D126">
-        <v>0.022953864197171707</v>
+        <v>0.00090560310859782978</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -2782,13 +2803,13 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.00010893090405353196</v>
+        <v>0.0027596839635800809</v>
       </c>
       <c r="C127">
-        <v>0.993245634058605</v>
+        <v>0.99626579744823462</v>
       </c>
       <c r="D127">
-        <v>0.0066454350373415716</v>
+        <v>0.00097451858818527236</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -2799,13 +2820,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.00036889095277946484</v>
+        <v>0.0072721237083035418</v>
       </c>
       <c r="C128">
-        <v>0.99839538378350035</v>
+        <v>0.96977401209452474</v>
       </c>
       <c r="D128">
-        <v>0.0012357252637201094</v>
+        <v>0.022953864197171707</v>
       </c>
       <c r="E128">
         <v>2</v>
@@ -2816,13 +2837,13 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.00023856698078738252</v>
+        <v>0.00010893090405353196</v>
       </c>
       <c r="C129">
-        <v>0.99930779872615028</v>
+        <v>0.993245634058605</v>
       </c>
       <c r="D129">
-        <v>0.00045363429306233971</v>
+        <v>0.0066454350373415716</v>
       </c>
       <c r="E129">
         <v>2</v>
@@ -2833,13 +2854,13 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.001287493016807051</v>
+        <v>0.00036889095277946484</v>
       </c>
       <c r="C130">
-        <v>0.99615647965224552</v>
+        <v>0.99839538378350035</v>
       </c>
       <c r="D130">
-        <v>0.0025560273309474242</v>
+        <v>0.0012357252637201094</v>
       </c>
       <c r="E130">
         <v>2</v>
@@ -2850,13 +2871,13 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.011265101030284986</v>
+        <v>0.00023856698078738252</v>
       </c>
       <c r="C131">
-        <v>0.98578676064220494</v>
+        <v>0.99930779872615028</v>
       </c>
       <c r="D131">
-        <v>0.0029481383275101226</v>
+        <v>0.00045363429306233971</v>
       </c>
       <c r="E131">
         <v>2</v>
@@ -2867,13 +2888,13 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.014938530327474451</v>
+        <v>0.001287493016807051</v>
       </c>
       <c r="C132">
-        <v>0.95718644215887305</v>
+        <v>0.99615647965224552</v>
       </c>
       <c r="D132">
-        <v>0.027875027513652506</v>
+        <v>0.0025560273309474242</v>
       </c>
       <c r="E132">
         <v>2</v>
@@ -2884,13 +2905,13 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.0025456620598136581</v>
+        <v>0.011265101030284986</v>
       </c>
       <c r="C133">
-        <v>0.99312580249826332</v>
+        <v>0.98578676064220494</v>
       </c>
       <c r="D133">
-        <v>0.0043285354419230352</v>
+        <v>0.0029481383275101226</v>
       </c>
       <c r="E133">
         <v>2</v>
@@ -2901,13 +2922,13 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.003525617340648875</v>
+        <v>0.014938530327474451</v>
       </c>
       <c r="C134">
-        <v>0.99135641535378627</v>
+        <v>0.95718644215887305</v>
       </c>
       <c r="D134">
-        <v>0.0051179673055649312</v>
+        <v>0.027875027513652506</v>
       </c>
       <c r="E134">
         <v>2</v>
@@ -2935,13 +2956,13 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.0017533975493966927</v>
+        <v>0.003525617340648875</v>
       </c>
       <c r="C136">
-        <v>0.99575950663781065</v>
+        <v>0.99135641535378627</v>
       </c>
       <c r="D136">
-        <v>0.0024870958127925732</v>
+        <v>0.0051179673055649312</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -2952,13 +2973,13 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.0088120830417540291</v>
+        <v>0.0025456620598136581</v>
       </c>
       <c r="C137">
-        <v>0.99112400156672231</v>
+        <v>0.99312580249826332</v>
       </c>
       <c r="D137">
-        <v>6.3915391523725997e-05</v>
+        <v>0.0043285354419230352</v>
       </c>
       <c r="E137">
         <v>2</v>
@@ -2969,13 +2990,13 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.00034786611678036501</v>
+        <v>0.0017533975493966927</v>
       </c>
       <c r="C138">
-        <v>0.99587312892423596</v>
+        <v>0.99575950663781065</v>
       </c>
       <c r="D138">
-        <v>0.0037790049589835699</v>
+        <v>0.0024870958127925732</v>
       </c>
       <c r="E138">
         <v>2</v>
@@ -2986,13 +3007,13 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.0093467082231972805</v>
+        <v>0.0088120830417540291</v>
       </c>
       <c r="C139">
-        <v>0.97863904964617521</v>
+        <v>0.99112400156672231</v>
       </c>
       <c r="D139">
-        <v>0.012014242130627618</v>
+        <v>6.3915391523725997e-05</v>
       </c>
       <c r="E139">
         <v>2</v>
@@ -3003,13 +3024,13 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.00064975096327403079</v>
+        <v>0.00034786611678036501</v>
       </c>
       <c r="C140">
-        <v>0.99464890779358106</v>
+        <v>0.99587312892423596</v>
       </c>
       <c r="D140">
-        <v>0.0047013412431449681</v>
+        <v>0.0037790049589835699</v>
       </c>
       <c r="E140">
         <v>2</v>
@@ -3020,13 +3041,13 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.00015211433347258192</v>
+        <v>0.0093467082231972805</v>
       </c>
       <c r="C141">
-        <v>0.99857787293748501</v>
+        <v>0.97863904964617521</v>
       </c>
       <c r="D141">
-        <v>0.0012700127290424198</v>
+        <v>0.012014242130627618</v>
       </c>
       <c r="E141">
         <v>2</v>
@@ -3037,13 +3058,13 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.0034620957709299081</v>
+        <v>0.00064975096327403079</v>
       </c>
       <c r="C142">
-        <v>0.98985181479439743</v>
+        <v>0.99464890779358106</v>
       </c>
       <c r="D142">
-        <v>0.0066860894346725775</v>
+        <v>0.0047013412431449681</v>
       </c>
       <c r="E142">
         <v>2</v>
@@ -3054,13 +3075,13 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.003043181010442719</v>
+        <v>0.00015211433347258192</v>
       </c>
       <c r="C143">
-        <v>0.99690777108390316</v>
+        <v>0.99857787293748501</v>
       </c>
       <c r="D143">
-        <v>4.9047905654249396e-05</v>
+        <v>0.0012700127290424198</v>
       </c>
       <c r="E143">
         <v>2</v>
@@ -3071,13 +3092,13 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.047798056683681873</v>
+        <v>0.0034620957709299081</v>
       </c>
       <c r="C144">
-        <v>0.95194448132439313</v>
+        <v>0.98985181479439743</v>
       </c>
       <c r="D144">
-        <v>0.00025746199192495229</v>
+        <v>0.0066860894346725775</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -3088,13 +3109,13 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.006690548224895859</v>
+        <v>0.003043181010442719</v>
       </c>
       <c r="C145">
-        <v>0.99148993765616777</v>
+        <v>0.99690777108390316</v>
       </c>
       <c r="D145">
-        <v>0.0018195141189364689</v>
+        <v>4.9047905654249396e-05</v>
       </c>
       <c r="E145">
         <v>2</v>
@@ -3105,13 +3126,13 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.02643310450262696</v>
+        <v>0.047798056683681873</v>
       </c>
       <c r="C146">
-        <v>0.96930846240357937</v>
+        <v>0.95194448132439313</v>
       </c>
       <c r="D146">
-        <v>0.0042584330937936359</v>
+        <v>0.00025746199192495229</v>
       </c>
       <c r="E146">
         <v>2</v>
@@ -3122,16 +3143,16 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.0048061179678608673</v>
+        <v>0.0014931925220042185</v>
       </c>
       <c r="C147">
-        <v>0.98857209801969737</v>
+        <v>4.169481079814825e-05</v>
       </c>
       <c r="D147">
-        <v>0.0066217840124417207</v>
+        <v>0.99846511266719751</v>
       </c>
       <c r="E147">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -3139,13 +3160,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.005064825066775574</v>
+        <v>0.006690548224895859</v>
       </c>
       <c r="C148">
-        <v>0.99458877205145646</v>
+        <v>0.99148993765616777</v>
       </c>
       <c r="D148">
-        <v>0.00034640288176809831</v>
+        <v>0.0018195141189364689</v>
       </c>
       <c r="E148">
         <v>2</v>
@@ -3156,13 +3177,13 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.0015459992460861939</v>
+        <v>0.02643310450262696</v>
       </c>
       <c r="C149">
-        <v>0.99378784276701726</v>
+        <v>0.96930846240357937</v>
       </c>
       <c r="D149">
-        <v>0.0046661579868965764</v>
+        <v>0.0042584330937936359</v>
       </c>
       <c r="E149">
         <v>2</v>
@@ -3173,13 +3194,13 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.0015459992460861939</v>
+        <v>0.0048061179678608673</v>
       </c>
       <c r="C150">
-        <v>0.99378784276701726</v>
+        <v>0.98857209801969737</v>
       </c>
       <c r="D150">
-        <v>0.0046661579868965764</v>
+        <v>0.0066217840124417207</v>
       </c>
       <c r="E150">
         <v>2</v>
@@ -3190,13 +3211,13 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.15298371519741466</v>
+        <v>0.005064825066775574</v>
       </c>
       <c r="C151">
-        <v>0.83865586103348888</v>
+        <v>0.99458877205145646</v>
       </c>
       <c r="D151">
-        <v>0.0083604237690964988</v>
+        <v>0.00034640288176809831</v>
       </c>
       <c r="E151">
         <v>2</v>
@@ -3207,13 +3228,13 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.0054847403442703719</v>
+        <v>0.0015459992460861939</v>
       </c>
       <c r="C152">
-        <v>0.98897687007393431</v>
+        <v>0.99378784276701726</v>
       </c>
       <c r="D152">
-        <v>0.0055383895817952581</v>
+        <v>0.0046661579868965764</v>
       </c>
       <c r="E152">
         <v>2</v>
@@ -3224,13 +3245,13 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.011439212908766202</v>
+        <v>0.0015459992460861939</v>
       </c>
       <c r="C153">
-        <v>0.9884879012261546</v>
+        <v>0.99378784276701726</v>
       </c>
       <c r="D153">
-        <v>7.2885865079324938e-05</v>
+        <v>0.0046661579868965764</v>
       </c>
       <c r="E153">
         <v>2</v>
@@ -3241,13 +3262,13 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.0090868282717353633</v>
+        <v>0.15298371519741466</v>
       </c>
       <c r="C154">
-        <v>0.98752023668250277</v>
+        <v>0.83865586103348888</v>
       </c>
       <c r="D154">
-        <v>0.0033929350457619209</v>
+        <v>0.0083604237690964988</v>
       </c>
       <c r="E154">
         <v>2</v>
@@ -3258,13 +3279,13 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.017202793860868364</v>
+        <v>0.0054847403442703719</v>
       </c>
       <c r="C155">
-        <v>0.97269315703595594</v>
+        <v>0.98897687007393431</v>
       </c>
       <c r="D155">
-        <v>0.010104049103175812</v>
+        <v>0.0055383895817952581</v>
       </c>
       <c r="E155">
         <v>2</v>
@@ -3275,13 +3296,13 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.0048061179678608673</v>
+        <v>0.011439212908766202</v>
       </c>
       <c r="C156">
-        <v>0.98857209801969737</v>
+        <v>0.9884879012261546</v>
       </c>
       <c r="D156">
-        <v>0.0066217840124417207</v>
+        <v>7.2885865079324938e-05</v>
       </c>
       <c r="E156">
         <v>2</v>
@@ -3292,13 +3313,13 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.0046568274940095387</v>
+        <v>0.0090868282717353633</v>
       </c>
       <c r="C157">
-        <v>0.98972584215929527</v>
+        <v>0.98752023668250277</v>
       </c>
       <c r="D157">
-        <v>0.0056173303466951754</v>
+        <v>0.0033929350457619209</v>
       </c>
       <c r="E157">
         <v>2</v>
@@ -3309,13 +3330,13 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.045161300420063569</v>
+        <v>0.017202793860868364</v>
       </c>
       <c r="C158">
-        <v>0.95479054080795689</v>
+        <v>0.97269315703595594</v>
       </c>
       <c r="D158">
-        <v>4.8158771979666568e-05</v>
+        <v>0.010104049103175812</v>
       </c>
       <c r="E158">
         <v>2</v>
@@ -3326,13 +3347,13 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.035884957241496221</v>
+        <v>0.0048061179678608673</v>
       </c>
       <c r="C159">
-        <v>0.96292861678483643</v>
+        <v>0.98857209801969737</v>
       </c>
       <c r="D159">
-        <v>0.0011864259736673458</v>
+        <v>0.0066217840124417207</v>
       </c>
       <c r="E159">
         <v>2</v>
@@ -3343,13 +3364,13 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.042736205472673115</v>
+        <v>0.0046568274940095387</v>
       </c>
       <c r="C160">
-        <v>0.95708734387529881</v>
+        <v>0.98972584215929527</v>
       </c>
       <c r="D160">
-        <v>0.0001764506520279886</v>
+        <v>0.0056173303466951754</v>
       </c>
       <c r="E160">
         <v>2</v>
@@ -3360,13 +3381,13 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.0015459992460861939</v>
+        <v>0.045161300420063569</v>
       </c>
       <c r="C161">
-        <v>0.99378784276701726</v>
+        <v>0.95479054080795689</v>
       </c>
       <c r="D161">
-        <v>0.0046661579868965764</v>
+        <v>4.8158771979666568e-05</v>
       </c>
       <c r="E161">
         <v>2</v>
@@ -3377,13 +3398,13 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.0015459992460861939</v>
+        <v>0.035884957241496221</v>
       </c>
       <c r="C162">
-        <v>0.99378784276701726</v>
+        <v>0.96292861678483643</v>
       </c>
       <c r="D162">
-        <v>0.0046661579868965764</v>
+        <v>0.0011864259736673458</v>
       </c>
       <c r="E162">
         <v>2</v>
@@ -3394,13 +3415,13 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.037509497800712339</v>
+        <v>0.042736205472673115</v>
       </c>
       <c r="C163">
-        <v>0.96204586209986742</v>
+        <v>0.95708734387529881</v>
       </c>
       <c r="D163">
-        <v>0.00044464009942018714</v>
+        <v>0.0001764506520279886</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -3428,13 +3449,13 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.0016692178069685377</v>
+        <v>0.0015459992460861939</v>
       </c>
       <c r="C165">
-        <v>0.99487840092390345</v>
+        <v>0.99378784276701726</v>
       </c>
       <c r="D165">
-        <v>0.0034523812691280346</v>
+        <v>0.0046661579868965764</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -3445,13 +3466,13 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.0068343050646911593</v>
+        <v>0.037509497800712339</v>
       </c>
       <c r="C166">
-        <v>0.97590960912462688</v>
+        <v>0.96204586209986742</v>
       </c>
       <c r="D166">
-        <v>0.01725608581068197</v>
+        <v>0.00044464009942018714</v>
       </c>
       <c r="E166">
         <v>2</v>
@@ -3462,13 +3483,13 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.018923887869452191</v>
+        <v>0.0015459992460861939</v>
       </c>
       <c r="C167">
-        <v>0.97955730653529771</v>
+        <v>0.99378784276701726</v>
       </c>
       <c r="D167">
-        <v>0.0015188055952500528</v>
+        <v>0.0046661579868965764</v>
       </c>
       <c r="E167">
         <v>2</v>
@@ -3479,13 +3500,13 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.0086269446797954258</v>
+        <v>0.0016692178069685377</v>
       </c>
       <c r="C168">
-        <v>0.98725051265881747</v>
+        <v>0.99487840092390345</v>
       </c>
       <c r="D168">
-        <v>0.0041225426613870977</v>
+        <v>0.0034523812691280346</v>
       </c>
       <c r="E168">
         <v>2</v>
@@ -3496,13 +3517,13 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.0016025558871237936</v>
+        <v>0.0068343050646911593</v>
       </c>
       <c r="C169">
-        <v>0.99816342443859385</v>
+        <v>0.97590960912462688</v>
       </c>
       <c r="D169">
-        <v>0.0002340196742824842</v>
+        <v>0.01725608581068197</v>
       </c>
       <c r="E169">
         <v>2</v>
@@ -3513,13 +3534,13 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.0015950543271094598</v>
+        <v>0.018923887869452191</v>
       </c>
       <c r="C170">
-        <v>0.99803732657170807</v>
+        <v>0.97955730653529771</v>
       </c>
       <c r="D170">
-        <v>0.00036761910118241267</v>
+        <v>0.0015188055952500528</v>
       </c>
       <c r="E170">
         <v>2</v>
@@ -3530,13 +3551,13 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.00040102881205651182</v>
+        <v>0.0086269446797954258</v>
       </c>
       <c r="C171">
-        <v>0.99542765037075387</v>
+        <v>0.98725051265881747</v>
       </c>
       <c r="D171">
-        <v>0.0041713208171895166</v>
+        <v>0.0041225426613870977</v>
       </c>
       <c r="E171">
         <v>2</v>
@@ -3547,13 +3568,13 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.015888812543045812</v>
+        <v>0.0016025558871237936</v>
       </c>
       <c r="C172">
-        <v>0.94956460028497591</v>
+        <v>0.99816342443859385</v>
       </c>
       <c r="D172">
-        <v>0.034546587171978324</v>
+        <v>0.0002340196742824842</v>
       </c>
       <c r="E172">
         <v>2</v>
@@ -3564,13 +3585,13 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.0041236933984802829</v>
+        <v>0.0015950543271094598</v>
       </c>
       <c r="C173">
-        <v>0.97503717888978303</v>
+        <v>0.99803732657170807</v>
       </c>
       <c r="D173">
-        <v>0.020839127711736651</v>
+        <v>0.00036761910118241267</v>
       </c>
       <c r="E173">
         <v>2</v>
@@ -3581,13 +3602,13 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.021994316705777252</v>
+        <v>0.00040102881205651182</v>
       </c>
       <c r="C174">
-        <v>0.9778407313221773</v>
+        <v>0.99542765037075387</v>
       </c>
       <c r="D174">
-        <v>0.00016495197204551758</v>
+        <v>0.0041713208171895166</v>
       </c>
       <c r="E174">
         <v>2</v>
@@ -3598,13 +3619,13 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.020968079370851836</v>
+        <v>0.015888812543045812</v>
       </c>
       <c r="C175">
-        <v>0.97765705314233109</v>
+        <v>0.94956460028497591</v>
       </c>
       <c r="D175">
-        <v>0.0013748674868170713</v>
+        <v>0.034546587171978324</v>
       </c>
       <c r="E175">
         <v>2</v>
@@ -3615,13 +3636,13 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.0010612830362002816</v>
+        <v>0.0041236933984802829</v>
       </c>
       <c r="C176">
-        <v>0.99663690174703135</v>
+        <v>0.97503717888978303</v>
       </c>
       <c r="D176">
-        <v>0.0023018152167683138</v>
+        <v>0.020839127711736651</v>
       </c>
       <c r="E176">
         <v>2</v>
@@ -3632,13 +3653,13 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>0.00035043952604059495</v>
+        <v>0.021994316705777252</v>
       </c>
       <c r="C177">
-        <v>0.99791938145221948</v>
+        <v>0.9778407313221773</v>
       </c>
       <c r="D177">
-        <v>0.0017301790217398771</v>
+        <v>0.00016495197204551758</v>
       </c>
       <c r="E177">
         <v>2</v>
@@ -3649,13 +3670,13 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>0.0028189967226600466</v>
+        <v>0.020968079370851836</v>
       </c>
       <c r="C178">
-        <v>0.99243857016531201</v>
+        <v>0.97765705314233109</v>
       </c>
       <c r="D178">
-        <v>0.0047424331120279901</v>
+        <v>0.0013748674868170713</v>
       </c>
       <c r="E178">
         <v>2</v>
@@ -3666,13 +3687,13 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0.0093869978975852728</v>
+        <v>0.0010612830362002816</v>
       </c>
       <c r="C179">
-        <v>0.98674902873805204</v>
+        <v>0.99663690174703135</v>
       </c>
       <c r="D179">
-        <v>0.0038639733643626591</v>
+        <v>0.0023018152167683138</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -3683,13 +3704,13 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.00065371331052913007</v>
+        <v>0.00035043952604059495</v>
       </c>
       <c r="C180">
-        <v>0.99729419987083023</v>
+        <v>0.99791938145221948</v>
       </c>
       <c r="D180">
-        <v>0.0020520868186405688</v>
+        <v>0.0017301790217398771</v>
       </c>
       <c r="E180">
         <v>2</v>
@@ -3700,13 +3721,13 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>0.0060162704815130271</v>
+        <v>0.0028189967226600466</v>
       </c>
       <c r="C181">
-        <v>0.99385059837969958</v>
+        <v>0.99243857016531201</v>
       </c>
       <c r="D181">
-        <v>0.00013313113878743696</v>
+        <v>0.0047424331120279901</v>
       </c>
       <c r="E181">
         <v>2</v>
@@ -3717,13 +3738,13 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0.0060503120619131339</v>
+        <v>0.0093869978975852728</v>
       </c>
       <c r="C182">
-        <v>0.96983415612101109</v>
+        <v>0.98674902873805204</v>
       </c>
       <c r="D182">
-        <v>0.024115531817075878</v>
+        <v>0.0038639733643626591</v>
       </c>
       <c r="E182">
         <v>2</v>
@@ -3734,13 +3755,13 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0.008157865606940767</v>
+        <v>0.00065371331052913007</v>
       </c>
       <c r="C183">
-        <v>0.95997837576327538</v>
+        <v>0.99729419987083023</v>
       </c>
       <c r="D183">
-        <v>0.031863758629783967</v>
+        <v>0.0020520868186405688</v>
       </c>
       <c r="E183">
         <v>2</v>
@@ -3751,15 +3772,134 @@
         <v>183</v>
       </c>
       <c r="B184">
+        <v>0.0060162704815130271</v>
+      </c>
+      <c r="C184">
+        <v>0.99385059837969958</v>
+      </c>
+      <c r="D184">
+        <v>0.00013313113878743696</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>0.0060503120619131339</v>
+      </c>
+      <c r="C185">
+        <v>0.96983415612101109</v>
+      </c>
+      <c r="D185">
+        <v>0.024115531817075878</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>0.008157865606940767</v>
+      </c>
+      <c r="C186">
+        <v>0.95997837576327538</v>
+      </c>
+      <c r="D186">
+        <v>0.031863758629783967</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>0.000783871807598093</v>
+      </c>
+      <c r="C187">
+        <v>0.00015713277420379408</v>
+      </c>
+      <c r="D187">
+        <v>0.9990589954181982</v>
+      </c>
+      <c r="E187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>0.00056105916382369998</v>
+      </c>
+      <c r="C188">
+        <v>0.00031277319259658822</v>
+      </c>
+      <c r="D188">
+        <v>0.99912616764357975</v>
+      </c>
+      <c r="E188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>0.00099124813496715607</v>
+      </c>
+      <c r="C189">
+        <v>4.6564816207287179e-05</v>
+      </c>
+      <c r="D189">
+        <v>0.99896218704882567</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>0.0011459294545574936</v>
+      </c>
+      <c r="C190">
+        <v>2.7775781045656198e-05</v>
+      </c>
+      <c r="D190">
+        <v>0.99882629476439688</v>
+      </c>
+      <c r="E190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191">
         <v>0.0001567645886161225</v>
       </c>
-      <c r="C184">
+      <c r="C191">
         <v>0.98792663364171973</v>
       </c>
-      <c r="D184">
+      <c r="D191">
         <v>0.011916601769664298</v>
       </c>
-      <c r="E184">
+      <c r="E191">
         <v>2</v>
       </c>
     </row>
